--- a/analysis/sale.xlsx
+++ b/analysis/sale.xlsx
@@ -450,7 +450,7 @@
         <v>2020</v>
       </c>
       <c r="B2" t="n">
-        <v>14.03377</v>
+        <v>1403377000</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>2021</v>
       </c>
       <c r="B3" t="n">
-        <v>30.387656</v>
+        <v>3038765600</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>2022</v>
       </c>
       <c r="B4" t="n">
-        <v>25.13477</v>
+        <v>2513477000</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>2023</v>
       </c>
       <c r="B5" t="n">
-        <v>30.20247</v>
+        <v>3020247000</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>2024</v>
       </c>
       <c r="B6" t="n">
-        <v>52.02354</v>
+        <v>5202354000</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/sale.xlsx
+++ b/analysis/sale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,16 @@
         <v>5202354000</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>전체</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>15178220600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/analysis/sale.xlsx
+++ b/analysis/sale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
         <v>2022</v>
       </c>
       <c r="B4" t="n">
-        <v>2513477000</v>
+        <v>2610234200</v>
       </c>
     </row>
     <row r="5">
@@ -483,16 +483,6 @@
       </c>
       <c r="B6" t="n">
         <v>5202354000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>전체</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>15178220600</v>
       </c>
     </row>
   </sheetData>
